--- a/biology/Zoologie/Cyanocorax_luxuosus/Cyanocorax_luxuosus.xlsx
+++ b/biology/Zoologie/Cyanocorax_luxuosus/Cyanocorax_luxuosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanocorax luxuosus, communément appelé Geai bigarré, est une espèce d'oiseaux de la famille des Corvidae qui se rencontre en Alaska[réf. nécessaire], au Mexique et aux États-Unis.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 février 2020)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 février 2020) :
 sous-espèce Cyanocorax luxuosus centralis (van Rossem, 1934)
 sous-espèce Cyanocorax luxuosus confusus A. R. Phillips, 1966
 sous-espèce Cyanocorax luxuosus cozumelae (van Rossem, 1934)
@@ -549,7 +563,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>R. P. Lesson, « Description de treize oiseaux nouveaux, suivies de rectifications sur quelques espèces déjà publiées », Revue zoologique, Paris, Inconnu, vol. 2,‎ 1839, p. 100-104 (ISSN 1259-6493 et 2419-4816, lire en ligne)</t>
         </is>
